--- a/medicine/Sexualité et sexologie/Quand_m'aimera-t-on__/Quand_m'aimera-t-on__.xlsx
+++ b/medicine/Sexualité et sexologie/Quand_m'aimera-t-on__/Quand_m'aimera-t-on__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quand_m%27aimera-t-on_%3F</t>
+          <t>Quand_m'aimera-t-on_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quand m'aimera-t-on ? (When Will I Be Loved) est un film américain réalisé par James Toback, sorti en 2004.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quand_m%27aimera-t-on_%3F</t>
+          <t>Quand_m'aimera-t-on_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Se sentant abandonnée par son petit-ami (Frederick Weller (en)), Vera Barrie (Neve Campbell), une jeune artiste new-yorkaise, explore sa sexualité avec d'autres personnes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quand_m%27aimera-t-on_%3F</t>
+          <t>Quand_m'aimera-t-on_?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Quand m'aimera-t-on ?
 Titre original : When Will I Be Loved
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Quand_m%27aimera-t-on_%3F</t>
+          <t>Quand_m'aimera-t-on_?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,9 +608,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Légende : VQ = Version Québécoise[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Légende : VQ = Version Québécoise
 Neve Campbell (VQ : Camille Cyr-Desmarais) : Vera Barrie
 Frederick Weller (en) (VQ : Jean-François Beaupré) : Ford Welles
 Ashley Shelton : Ashley
